--- a/BalanceSheet/GD_bal.xlsx
+++ b/BalanceSheet/GD_bal.xlsx
@@ -3899,7 +3899,7 @@
         <v>14082000000.0</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>12531000000.0</v>
+        <v>11028000000.0</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>12676000000.0</v>
@@ -4026,7 +4026,7 @@
         <v>19412000000.0</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>13433000000.0</v>
+        <v>11930000000.0</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>13650000000.0</v>
